--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,65 +456,60 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Automated</t>
+          <t>Preconditions</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Preconditions</t>
+          <t>Steps</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Steps</t>
+          <t>Postconditions</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Postconditions</t>
+          <t>ExpectedResult</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ExpectedResult</t>
+          <t>TestData</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>TestData</t>
+          <t>Comments</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Comments</t>
+          <t>Iterations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Iterations</t>
+          <t>Priority</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Priority</t>
+          <t>State</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>CreatedDate</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>CreatedDate</t>
+          <t>CreatedById</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>CreatedById</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Tags</t>
         </is>
@@ -539,37 +534,34 @@
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Highest</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Highest</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>05/23/2024 14:48:49</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>05/23/2024 14:48:49</t>
+          <t>Служебный пользователь для Автотестов</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
         <is>
           <t>смоук хф</t>
         </is>
@@ -582,13 +574,13 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП, Контролер</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -599,7 +591,6 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -608,19 +599,19 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР под ролью Контролер</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -628,7 +619,6 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -637,12 +627,12 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Предварительно инициировать/найти операцию доступную для исполнения в роли контролера(например перевод клиенту Банка со счета)</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -653,7 +643,6 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -663,18 +652,18 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Кликнуть на раздел "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>На странице задач отображается список задач(по умолчанию выделен раздел "Доступные задачи") доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -682,7 +671,6 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -692,18 +680,18 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Задаче назначается исполнитель – текущий пользователь и список задач обновляется (задача пропадает из пула "Доступные задачи") Задачу можно увидеть в разделе "Мои задачи"</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -711,7 +699,6 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -721,18 +708,18 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Кликнуть "Мои задачи"</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -740,7 +727,6 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -750,18 +736,18 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Открывается форма задачи в текущей вкладке</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -769,7 +755,6 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -790,37 +775,34 @@
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Highest</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Highest</t>
+          <t>NotReady</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>NotReady</t>
+          <t>05/23/2024 14:48:49</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
           <t>Служебный пользователь для Автотестов</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -829,13 +811,13 @@
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -846,7 +828,6 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -855,19 +836,19 @@
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -875,7 +856,6 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -885,18 +865,18 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -904,7 +884,6 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -914,18 +893,18 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Нажать "Взять и исполнить" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -933,7 +912,6 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -954,37 +932,34 @@
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Highest</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Highest</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>05/23/2024 14:48:49</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
           <t>Служебный пользователь для Автотестов</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -993,14 +968,14 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1011,7 +986,6 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1020,19 +994,19 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1040,7 +1014,6 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1049,12 +1022,12 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1065,7 +1038,6 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1074,19 +1046,19 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1094,7 +1066,6 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1103,19 +1074,19 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1123,7 +1094,6 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1132,12 +1102,12 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
@@ -1148,7 +1118,6 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1158,18 +1127,18 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Перейти на страницу входа в систему ЕФР https://rtest_efr.rshb.ru/efrhot/login</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Отображается страница входа в систему ЕФР</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1177,7 +1146,6 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1187,18 +1155,18 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Ввести логин и пароль не заблокированного пользователя, у которого группы доступа соответствуют его ролям в ЕФР. Нажать "Войти"</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Вход осуществлен успешно. Отображается страница поиска клиента по основным реквизитам</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1206,7 +1174,6 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1216,18 +1183,18 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1235,7 +1202,6 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1245,18 +1211,18 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1264,7 +1230,6 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1274,18 +1239,18 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>в первой сессии нажать "Взять" для задачи, которая была выбрана во второй сессии</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1293,7 +1258,6 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1303,18 +1267,18 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>в первой сессии нажать "Взять и исполнить" для задачи, которая была выбрана во второй сессии</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1322,7 +1286,6 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1343,37 +1306,34 @@
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Highest</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Highest</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>05/23/2024 14:48:49</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>05/23/2024 14:48:49</t>
+          <t>Служебный пользователь для Автотестов</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
         <is>
           <t>смоук хф</t>
         </is>
@@ -1386,14 +1346,14 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -1404,7 +1364,6 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1413,19 +1372,19 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1433,7 +1392,6 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1442,12 +1400,12 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1458,7 +1416,6 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1467,19 +1424,19 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -1487,7 +1444,6 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1496,19 +1452,19 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -1516,7 +1472,6 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1525,12 +1480,12 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -1541,7 +1496,6 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1551,18 +1505,18 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -1570,7 +1524,6 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1580,18 +1533,18 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Кликнуть "Мои задачи"</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -1599,7 +1552,6 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1609,18 +1561,18 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -1628,7 +1580,6 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1638,18 +1589,18 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться этим же пользователем, для задачи с предыдущего шага нажать "Вернуть"</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>задачи снимается исполнитель и список задач обновляется</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -1657,7 +1608,6 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1678,37 +1628,34 @@
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Highest</t>
+        </is>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Highest</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>05/23/2024 14:48:49</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
           <t>Служебный пользователь для Автотестов</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1717,14 +1664,14 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -1735,7 +1682,6 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1744,19 +1690,19 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -1764,7 +1710,6 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1773,12 +1718,12 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -1789,7 +1734,6 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1798,19 +1742,19 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -1818,7 +1762,6 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1827,19 +1770,19 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -1847,7 +1790,6 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1856,12 +1798,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
@@ -1872,7 +1814,6 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1882,18 +1823,18 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -1901,7 +1842,6 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1911,18 +1851,18 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>В первой сессии нажать "Исполнить" для той же задачи, не закрывать окно</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача не назначена» и список задач обновляется;</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -1930,7 +1870,6 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1940,18 +1879,18 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>В первой сессии нажать "Исполнить" для задачи из предусловия</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -1959,7 +1898,6 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1969,18 +1907,18 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача переназначена» и список задач обновляется</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -1988,7 +1926,6 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2009,37 +1946,34 @@
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Highest</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Highest</t>
+          <t>Ready</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Ready</t>
+          <t>05/23/2024 14:48:49</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
           <t>Служебный пользователь для Автотестов</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2048,8 +1982,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП, Контролер ТП
@@ -2057,6 +1990,7 @@
 -Клиент с двумя текущими счетом (не блокированным, с остатком на счете больше 300000р)</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -2067,7 +2001,6 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2076,19 +2009,19 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -2096,7 +2029,6 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2106,20 +2038,20 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>На странице поиска клиента выбрать "Тип документа" - Паспорт гражданина РФ
 Ввести серию и номер в формате "0000/000000" клиента
 Нажать "Найти"</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Отображается соответствующий клиенту продуктовый профиль.</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -2127,7 +2059,6 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2137,18 +2068,18 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>В разделе Счета, у существующего текущего счета нажать кнопку "Операции"</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>В списке операций присутствует "Перевод между счетами клиента"</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
@@ -2156,7 +2087,6 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2166,14 +2096,13 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Нажать "Перевод между счетами клиента"</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Отображается форма "Перевод между счетами клиента"
 На форме отображаются поля:
@@ -2183,6 +2112,7 @@
 Сумма списания(поле доступно для ввода), напротив поля есть чекбокс "Весь остаток"</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
@@ -2190,7 +2120,6 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2200,19 +2129,19 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Ввести в поле "Сумма списания" сумму 300 000
 Нажать "Продолжить"</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Осуществляется переход на страницу "Формирование пакета документов"</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
@@ -2220,7 +2149,6 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2230,18 +2158,18 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Нажать "Печать"</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Открывается печатная форма документов в новой вкладке</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -2249,7 +2177,6 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2259,12 +2186,12 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>закрыть вкладку</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2274,7 +2201,6 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2284,19 +2210,19 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Нажать "Документы подписаны"</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Открывается окно подтверждения заявки
 В графе статус - "На контроле"</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -2304,7 +2230,6 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2314,18 +2239,18 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Нажать "Выход"</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Открывается страница авторизации</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
@@ -2333,7 +2258,6 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2343,18 +2267,18 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Авторизоваться под ролью Контролер ТП</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
@@ -2362,7 +2286,6 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2372,18 +2295,18 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Нажать "Задачи"</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Открывается задач, доступных на исполнение</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
@@ -2391,7 +2314,6 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2401,18 +2323,18 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>Нажать "взять " у задачи по переводу счета.</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Открывается страница задачи открытия счета</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
@@ -2420,7 +2342,6 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2430,18 +2351,18 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Нажать "Отменить"</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Страница обновляется, в статусе задачи статус "Отменена"</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
@@ -2449,7 +2370,6 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2459,18 +2379,18 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
@@ -2478,7 +2398,6 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,77 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Direction</t>
+          <t>Section</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Section</t>
+          <t>TestCaseName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TestCaseName</t>
+          <t>Preconditions</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Preconditions</t>
+          <t>Steps</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Steps</t>
+          <t>Postconditions</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Postconditions</t>
+          <t>ExpectedResult</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ExpectedResult</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>TestData</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Iterations</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>CreatedDate</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>CreatedById</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Tags</t>
         </is>
       </c>
     </row>
@@ -521,240 +481,208 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AI_Отладка</t>
+          <t>Пул задач пользователя</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Highest</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>смоук хф</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>544031</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП, Контролер</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>544031</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР под ролью Контролер</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>544031</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>Предварительно инициировать/найти операцию доступную для исполнения в роли контролера(например перевод клиенту Банка со счета)</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>544031</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Кликнуть на раздел "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>На странице задач отображается список задач(по умолчанию выделен раздел "Доступные задачи") доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>544031</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Задаче назначается исполнитель – текущий пользователь и список задач обновляется (задача пропадает из пула "Доступные задачи") Задачу можно увидеть в разделе "Мои задачи"</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>544031</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Кликнуть "Мои задачи"</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>544031</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Исполнить задачу </t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Открывается форма задачи в текущей вкладке</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -762,156 +690,128 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AI_Отладка</t>
+          <t>Пул задач пользователя</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Highest</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>NotReady</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>544032</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>544032</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>544032</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>544032</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Нажать "Взять и исполнить" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -919,373 +819,345 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AI_Отладка</t>
+          <t>Пул задач пользователя</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Highest</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>544033</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>544033</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>544033</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>544033</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>544033</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>544033</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>544033</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Перейти на страницу входа в систему ЕФР https://rtest_efr.rshb.ru/efrhot/login</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>Отображается страница входа в систему ЕФР</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>544033</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Ввести логин и пароль не заблокированного пользователя, у которого группы доступа соответствуют его ролям в ЕФР. Нажать "Войти"</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Вход осуществлен успешно. Отображается страница поиска клиента по основным реквизитам</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>544033</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>544033</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>544033</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>в первой сессии нажать "Взять" для задачи, которая была выбрана во второй сессии</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>544033</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Контролер.  2 сессии Негатив</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>в первой сессии нажать "Взять и исполнить" для задачи, которая была выбрана во второй сессии</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1293,321 +1165,289 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AI_Отладка</t>
+          <t>Пул задач пользователя</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Highest</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>смоук хф</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>544034</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>544034</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>544034</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>544034</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>544034</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>544034</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>544034</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>544034</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Кликнуть "Мои задачи"</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>544034</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>544034</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Возврат задачи.</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться этим же пользователем, для задачи с предыдущего шага нажать "Вернуть"</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>задачи снимается исполнитель и список задач обновляется</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1615,317 +1455,289 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AI_Отладка</t>
+          <t>Пул задач пользователя</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Highest</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>544035</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>544035</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>544035</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>544035</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>544035</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>544035</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>544035</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>544035</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>В первой сессии нажать "Исполнить" для той же задачи, не закрывать окно</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача не назначена» и список задач обновляется;</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>544035</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>В первой сессии нажать "Исполнить" для задачи из предусловия</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>544035</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Исполнить, две сессии</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача переназначена» и список задач обновляется</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1933,56 +1745,35 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AI_Отладка</t>
+          <t>Пул задач пользователя</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Highest</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Ready</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>05/23/2024 14:48:49</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Служебный пользователь для Автотестов</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>544036</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП, Контролер ТП
@@ -1990,119 +1781,119 @@
 -Клиент с двумя текущими счетом (не блокированным, с остатком на счете больше 300000р)</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>544036</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>544036</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>На странице поиска клиента выбрать "Тип документа" - Паспорт гражданина РФ
 Ввести серию и номер в формате "0000/000000" клиента
 Нажать "Найти"</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>Отображается соответствующий клиенту продуктовый профиль.</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>544036</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>В разделе Счета, у существующего текущего счета нажать кнопку "Операции"</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>В списке операций присутствует "Перевод между счетами клиента"</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>544036</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Нажать "Перевод между счетами клиента"</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>Отображается форма "Перевод между счетами клиента"
 На форме отображаются поля:
@@ -2112,292 +1903,285 @@
 Сумма списания(поле доступно для ввода), напротив поля есть чекбокс "Весь остаток"</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>544036</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Ввести в поле "Сумма списания" сумму 300 000
 Нажать "Продолжить"</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>Осуществляется переход на страницу "Формирование пакета документов"</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>544036</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Нажать "Печать"</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Открывается печатная форма документов в новой вкладке</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>544036</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>закрыть вкладку</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>544036</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Нажать "Документы подписаны"</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>Открывается окно подтверждения заявки
 В графе статус - "На контроле"</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>544036</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Нажать "Выход"</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>Открывается страница авторизации</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>544036</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Авторизоваться под ролью Контролер ТП</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>544036</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>Нажать "Задачи"</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>Открывается задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>544036</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Нажать "взять " у задачи по переводу счета.</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>Открывается страница задачи открытия счета</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>544036</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Нажать "Отменить"</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>Страница обновляется, в статусе задачи статус "Отменена"</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>544036</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Перевод между счетами клиента Контроль</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>ExpectedResult</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TestData</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -493,7 +488,6 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -518,7 +512,6 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -546,7 +539,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -570,7 +562,6 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -598,7 +589,6 @@
           <t>На странице задач отображается список задач(по умолчанию выделен раздел "Доступные задачи") доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -626,7 +616,6 @@
           <t>Задаче назначается исполнитель – текущий пользователь и список задач обновляется (задача пропадает из пула "Доступные задачи") Задачу можно увидеть в разделе "Мои задачи"</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -654,7 +643,6 @@
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -682,7 +670,6 @@
           <t>Открывается форма задачи в текущей вкладке</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -702,7 +689,6 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -727,7 +713,6 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -755,7 +740,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -783,7 +767,6 @@
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -811,7 +794,6 @@
           <t>открывается форма задачи</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -831,7 +813,6 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -857,7 +838,6 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -885,7 +865,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -909,7 +888,6 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -937,7 +915,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -965,7 +942,6 @@
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -989,7 +965,6 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1017,7 +992,6 @@
           <t>Отображается страница входа в систему ЕФР</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1045,7 +1019,6 @@
           <t>Вход осуществлен успешно. Отображается страница поиска клиента по основным реквизитам</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1073,7 +1046,6 @@
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1101,7 +1073,6 @@
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1129,7 +1100,6 @@
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1157,7 +1127,6 @@
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1177,7 +1146,6 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1203,7 +1171,6 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1231,7 +1198,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1255,7 +1221,6 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1283,7 +1248,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1311,7 +1275,6 @@
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1335,7 +1298,6 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1363,7 +1325,6 @@
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1391,7 +1352,6 @@
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1419,7 +1379,6 @@
           <t>открывается форма задачи</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1447,7 +1406,6 @@
           <t>задачи снимается исполнитель и список задач обновляется</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1467,7 +1425,6 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1493,7 +1450,6 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1521,7 +1477,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1545,7 +1500,6 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1573,7 +1527,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1601,7 +1554,6 @@
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1625,7 +1577,6 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1653,7 +1604,6 @@
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1681,7 +1631,6 @@
           <t>выдается сообщение «Задача не назначена» и список задач обновляется;</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1709,7 +1658,6 @@
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1737,7 +1685,6 @@
           <t>выдается сообщение «Задача переназначена» и список задач обновляется</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1757,7 +1704,6 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1784,7 +1730,6 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1812,7 +1757,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1842,7 +1786,6 @@
           <t>Отображается соответствующий клиенту продуктовый профиль.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1870,7 +1813,6 @@
           <t>В списке операций присутствует "Перевод между счетами клиента"</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1903,7 +1845,6 @@
 Сумма списания(поле доступно для ввода), напротив поля есть чекбокс "Весь остаток"</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1932,7 +1873,6 @@
           <t>Осуществляется переход на страницу "Формирование пакета документов"</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1960,7 +1900,6 @@
           <t>Открывается печатная форма документов в новой вкладке</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1984,7 +1923,6 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2013,7 +1951,6 @@
 В графе статус - "На контроле"</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2041,7 +1978,6 @@
           <t>Открывается страница авторизации</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2069,7 +2005,6 @@
           <t>Открывается страница поиска клиента</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2097,7 +2032,6 @@
           <t>Открывается задач, доступных на исполнение</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2125,7 +2059,6 @@
           <t>Открывается страница задачи открытия счета</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2153,7 +2086,6 @@
           <t>Страница обновляется, в статусе задачи статус "Отменена"</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2181,7 +2113,6 @@
           <t>открывается форма задачи</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,35 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Section</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>TestCaseName</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Preconditions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Steps</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Postconditions</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ExpectedResult</t>
         </is>
@@ -476,18 +481,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -495,23 +505,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП, Контролер</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -519,22 +534,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР под ролью Контролер</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -546,22 +566,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Предварительно инициировать/найти операцию доступную для исполнения в роли контролера(например перевод клиенту Банка со счета)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -569,22 +594,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Кликнуть на раздел "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>На странице задач отображается список задач(по умолчанию выделен раздел "Доступные задачи") доступных на исполнение пользователю.</t>
         </is>
@@ -596,22 +626,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Задаче назначается исполнитель – текущий пользователь и список задач обновляется (задача пропадает из пула "Доступные задачи") Задачу можно увидеть в разделе "Мои задачи"</t>
         </is>
@@ -623,22 +658,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Кликнуть "Мои задачи"</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
@@ -650,22 +690,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Исполнить задачу </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Открывается форма задачи в текущей вкладке</t>
         </is>
@@ -677,18 +722,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -696,23 +746,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -720,22 +775,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -747,22 +807,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
@@ -774,22 +839,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t xml:space="preserve">Контролер. Взять и исполнить задачу </t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Нажать "Взять и исполнить" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
@@ -801,18 +871,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -820,24 +895,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -845,22 +925,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -872,22 +957,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -895,22 +985,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -922,22 +1017,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
@@ -949,22 +1049,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -972,22 +1077,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Перейти на страницу входа в систему ЕФР https://rtest_efr.rshb.ru/efrhot/login</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Отображается страница входа в систему ЕФР</t>
         </is>
@@ -999,22 +1109,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
         <is>
           <t>Ввести логин и пароль не заблокированного пользователя, у которого группы доступа соответствуют его ролям в ЕФР. Нажать "Войти"</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Вход осуществлен успешно. Отображается страница поиска клиента по основным реквизитам</t>
         </is>
@@ -1026,22 +1141,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
@@ -1053,22 +1173,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
@@ -1080,22 +1205,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
         <is>
           <t>в первой сессии нажать "Взять" для задачи, которая была выбрана во второй сессии</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
@@ -1107,22 +1237,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Контролер.  2 сессии Негатив</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
         <is>
           <t>в первой сессии нажать "Взять и исполнить" для задачи, которая была выбрана во второй сессии</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача уже взята на исполнение» и список задач обновляется</t>
         </is>
@@ -1134,18 +1269,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1153,24 +1293,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1178,22 +1323,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -1205,22 +1355,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1228,22 +1383,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -1255,22 +1415,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
@@ -1282,22 +1447,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1305,22 +1475,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>задаче назначается исполнитель – текущий пользователь и список задач обновляется</t>
         </is>
@@ -1332,22 +1507,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
         <is>
           <t>Кликнуть "Мои задачи"</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
@@ -1359,22 +1539,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
@@ -1386,22 +1571,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Возврат задачи.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться этим же пользователем, для задачи с предыдущего шага нажать "Вернуть"</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>задачи снимается исполнитель и список задач обновляется</t>
         </is>
@@ -1413,18 +1603,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1432,24 +1627,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП
 Менеджер-операционист ТП</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1457,22 +1657,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -1484,22 +1689,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>нажать "Задачи"</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1507,22 +1717,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>В другой сессии браузера авторизоваться пользователем Менеджер-операционист ТП,</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -1534,22 +1749,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
@@ -1561,22 +1781,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Нажать "Взять" для задачи из пула текущего пользователя</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1584,22 +1809,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
         <is>
           <t>Кликнуть "Задачи" в верхней части экрана</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
         <is>
           <t>На форме отображается список задач доступных на исполнение пользователю.</t>
         </is>
@@ -1611,22 +1841,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
         <is>
           <t>В первой сессии нажать "Исполнить" для той же задачи, не закрывать окно</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача не назначена» и список задач обновляется;</t>
         </is>
@@ -1638,22 +1873,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
         <is>
           <t>В первой сессии нажать "Исполнить" для задачи из предусловия</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Открывается пул задач, доступных на исполнение</t>
         </is>
@@ -1665,22 +1905,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Исполнить, две сессии</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>выдается сообщение «Задача переназначена» и список задач обновляется</t>
         </is>
@@ -1692,18 +1937,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1711,15 +1961,20 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Роль:
 Операционист ТП, Контролер ТП
@@ -1727,9 +1982,9 @@
 -Клиент с двумя текущими счетом (не блокированным, с остатком на счете больше 300000р)</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1737,22 +1992,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Выполнен вход в ЕФР</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -1764,24 +2024,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
         <is>
           <t>На странице поиска клиента выбрать "Тип документа" - Паспорт гражданина РФ
 Ввести серию и номер в формате "0000/000000" клиента
 Нажать "Найти"</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>Отображается соответствующий клиенту продуктовый профиль.</t>
         </is>
@@ -1793,22 +2058,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>В разделе Счета, у существующего текущего счета нажать кнопку "Операции"</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>В списке операций присутствует "Перевод между счетами клиента"</t>
         </is>
@@ -1820,22 +2090,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
         <is>
           <t>Нажать "Перевод между счетами клиента"</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
         <is>
           <t>Отображается форма "Перевод между счетами клиента"
 На форме отображаются поля:
@@ -1852,23 +2127,28 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
         <is>
           <t>Ввести в поле "Сумма списания" сумму 300 000
 Нажать "Продолжить"</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
         <is>
           <t>Осуществляется переход на страницу "Формирование пакета документов"</t>
         </is>
@@ -1880,22 +2160,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
         <is>
           <t>Нажать "Печать"</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
         <is>
           <t>Открывается печатная форма документов в новой вкладке</t>
         </is>
@@ -1907,22 +2192,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
         <is>
           <t>закрыть вкладку</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1930,22 +2220,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
         <is>
           <t>Нажать "Документы подписаны"</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Открывается окно подтверждения заявки
 В графе статус - "На контроле"</t>
@@ -1958,22 +2253,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
         <is>
           <t>Нажать "Выход"</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
         <is>
           <t>Открывается страница авторизации</t>
         </is>
@@ -1985,22 +2285,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
         <is>
           <t>Авторизоваться под ролью Контролер ТП</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr">
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
         <is>
           <t>Открывается страница поиска клиента</t>
         </is>
@@ -2012,22 +2317,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
         <is>
           <t>Нажать "Задачи"</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr">
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>Открывается задач, доступных на исполнение</t>
         </is>
@@ -2039,22 +2349,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
         <is>
           <t>Нажать "взять " у задачи по переводу счета.</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr">
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
         <is>
           <t>Открывается страница задачи открытия счета</t>
         </is>
@@ -2066,22 +2381,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
         <is>
           <t>Нажать "Отменить"</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
         <is>
           <t>Страница обновляется, в статусе задачи статус "Отменена"</t>
         </is>
@@ -2093,22 +2413,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Пул задач пользователя</t>
+          <t>AI_Отладка</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>Пул задач пользователя</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Перевод между счетами клиента Контроль</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
         <is>
           <t>Нажать "Исполнить" для задачи из пула текущего пользователя, не закрывать окно</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr">
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
         <is>
           <t>открывается форма задачи</t>
         </is>
